--- a/data/trans_camb/P1419-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1419-Edad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-0.6849761343139147</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-0.0665511464301858</v>
+        <v>-0.06655114643018588</v>
       </c>
     </row>
     <row r="5">
@@ -678,22 +678,22 @@
       <c r="D5" s="5" t="inlineStr"/>
       <c r="E5" s="5" t="inlineStr"/>
       <c r="F5" s="5" t="n">
-        <v>-3.007973730117968</v>
+        <v>-3.180589917710103</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.068323842094471</v>
+        <v>-2.930828912449748</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.798113753818863</v>
+        <v>-1.861504136385444</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.441500150893134</v>
+        <v>-1.506022432632467</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.414055903085048</v>
+        <v>-1.435464696303654</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.850747754602871</v>
+        <v>-0.8355210002856652</v>
       </c>
     </row>
     <row r="6">
@@ -707,22 +707,22 @@
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>-0.5182460712486319</v>
+        <v>-0.5969623358261813</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-0.5976870734641428</v>
+        <v>-0.5175402644588456</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.779274659886162</v>
+        <v>2.810442611070696</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-0.2894951586980671</v>
+        <v>-0.2905704904742856</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-0.2478030452622184</v>
+        <v>-0.287138735323951</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.34562172588472</v>
+        <v>1.280213868157642</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-1</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.09715834332950112</v>
+        <v>-0.09715834332950125</v>
       </c>
     </row>
     <row r="8">
@@ -788,12 +788,12 @@
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="n">
-        <v>5.642358004959703</v>
+        <v>4.634263888173714</v>
       </c>
       <c r="I9" s="6" t="inlineStr"/>
       <c r="J9" s="6" t="inlineStr"/>
       <c r="K9" s="6" t="n">
-        <v>4.469133953168588</v>
+        <v>5.103889668313323</v>
       </c>
     </row>
     <row r="10">
@@ -843,31 +843,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.862357703327878</v>
+        <v>-1.826562844338917</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.14548500401296</v>
+        <v>-2.089314966741456</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.733221875144653</v>
+        <v>-1.887601569144873</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.006010068804711</v>
+        <v>-6.162483302338666</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-6.634964832169064</v>
+        <v>-6.486771151172892</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-5.330802448293068</v>
+        <v>-5.32248052127156</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-3.219005740580247</v>
+        <v>-3.318552050771005</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.552162593005668</v>
+        <v>-3.530084621033843</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-2.82390951541582</v>
+        <v>-2.876180843218726</v>
       </c>
     </row>
     <row r="12">
@@ -878,31 +878,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.188637714894429</v>
+        <v>0.1472524177281653</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.1775404685479025</v>
+        <v>-0.2151382636522967</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4960895133317756</v>
+        <v>0.436142273628221</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-2.005382462633444</v>
+        <v>-2.051052618170771</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-2.618568566266346</v>
+        <v>-2.502869830817565</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-0.8665348681559465</v>
+        <v>-1.095516345739571</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-1.114250104021624</v>
+        <v>-1.103614205180516</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-1.477954680453512</v>
+        <v>-1.507516090337924</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-0.4852148589318085</v>
+        <v>-0.4377918155650329</v>
       </c>
     </row>
     <row r="13">
@@ -928,7 +928,7 @@
         <v>-0.8620044662158571</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.6154560514126709</v>
+        <v>-0.615456051412671</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.7355245275785613</v>
@@ -957,22 +957,22 @@
         <v>-1</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.9090182213580765</v>
+        <v>-0.9106837704422939</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.9706852532685192</v>
+        <v>-0.9641558126332422</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.8478461330808216</v>
+        <v>-0.8168269013738311</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.8751756349280059</v>
+        <v>-0.8735016814950286</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.945977963974061</v>
+        <v>-0.9518067722329545</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.784096398477407</v>
+        <v>-0.7993984072220501</v>
       </c>
     </row>
     <row r="15">
@@ -983,31 +983,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.238759288936579</v>
+        <v>0.6003613007060378</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.8454492128420611</v>
+        <v>0.5269896836684739</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.845189279834448</v>
+        <v>1.263001583111645</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.4635515001853667</v>
+        <v>-0.4913398998419505</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.6415632226574145</v>
+        <v>-0.581286657545788</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.2383621675759443</v>
+        <v>-0.1414107479332787</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.4682716861152498</v>
+        <v>-0.4490973449839101</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.6530565230816309</v>
+        <v>-0.6574409276883495</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.1473209425325037</v>
+        <v>-0.1642153723867168</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-5.443192137123158</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-1.006346709039596</v>
+        <v>-1.006346709039595</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-1.265092776439548</v>
@@ -1057,31 +1057,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.978818609049178</v>
+        <v>-2.014908717474811</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.576911814620608</v>
+        <v>-2.62092032545087</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.9803124405648992</v>
+        <v>-1.008156061861394</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.488129036087615</v>
+        <v>-4.415672812454945</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-7.751199677702091</v>
+        <v>-7.761994022725113</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-3.688767342614408</v>
+        <v>-3.506152175572128</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.872187564925045</v>
+        <v>-2.805039113194092</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-4.768165941694082</v>
+        <v>-4.824809182938651</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.814441696212617</v>
+        <v>-1.820542946345328</v>
       </c>
     </row>
     <row r="18">
@@ -1092,31 +1092,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6154582569517544</v>
+        <v>0.8346743609497855</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.3777200272273938</v>
+        <v>-0.3857784244049279</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.303681903079454</v>
+        <v>2.361847592786129</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8853399196619793</v>
+        <v>0.8867264565058337</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-3.128049655741245</v>
+        <v>-3.280191976147377</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.467050279951434</v>
+        <v>1.685195951928823</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3852030422167761</v>
+        <v>0.3752551304089808</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-2.316263904970477</v>
+        <v>-2.345740555188677</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.166587287183134</v>
+        <v>1.039563579885237</v>
       </c>
     </row>
     <row r="19">
@@ -1142,7 +1142,7 @@
         <v>-0.7436072363822924</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.1374793827408149</v>
+        <v>-0.1374793827408147</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.2771860432647279</v>
@@ -1162,31 +1162,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.8788469684605742</v>
+        <v>-0.911109174288393</v>
       </c>
       <c r="D20" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4756174211314739</v>
+        <v>-0.5167644065028731</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5065587550189662</v>
+        <v>-0.5107190897157829</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.868757118103524</v>
+        <v>-0.8669596650405212</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4235869075303045</v>
+        <v>-0.4070388206606351</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.5280177797237844</v>
+        <v>-0.5171956084712179</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.8769696307869859</v>
+        <v>-0.8759603357002652</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3315030676349938</v>
+        <v>-0.3372961739165307</v>
       </c>
     </row>
     <row r="21">
@@ -1197,31 +1197,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.9678530945093065</v>
+        <v>1.288322810598721</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.6325239294733703</v>
+        <v>0.240726685728893</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.280099077690348</v>
+        <v>2.742357125549355</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1633325097237198</v>
+        <v>0.1587664261304681</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.5303577709189804</v>
+        <v>-0.521746348590225</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2441494126509433</v>
+        <v>0.3111906346299185</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1237536775695172</v>
+        <v>0.1154300020955547</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.5930295946981667</v>
+        <v>-0.602445061893474</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.3216969943905784</v>
+        <v>0.2715412903165371</v>
       </c>
     </row>
     <row r="22">
@@ -1242,7 +1242,7 @@
         <v>-1.112809831646853</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-0.2618311436555977</v>
+        <v>-0.2618311436555984</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-3.973559199959961</v>
@@ -1260,7 +1260,7 @@
         <v>-2.976919708016977</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.9021574835941043</v>
+        <v>0.9021574835941057</v>
       </c>
     </row>
     <row r="23">
@@ -1271,31 +1271,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.743539600584884</v>
+        <v>-4.741642155056344</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.623667321528501</v>
+        <v>-3.623362090034739</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.938592964719945</v>
+        <v>-2.76536940151405</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-7.48816449046326</v>
+        <v>-7.128939551456718</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-8.148912146381964</v>
+        <v>-8.163124645991681</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.599791451494801</v>
+        <v>-1.521881869507085</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-5.102284323695269</v>
+        <v>-5.268837355646656</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-4.909954504761742</v>
+        <v>-5.004548178438419</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.108390839291039</v>
+        <v>-1.05961447049001</v>
       </c>
     </row>
     <row r="24">
@@ -1306,31 +1306,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.2904162553996962</v>
+        <v>-0.3169144520225455</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.029566010577097</v>
+        <v>1.015847284204932</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.871369583894089</v>
+        <v>1.973659319282744</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-0.8568217841608262</v>
+        <v>-0.3393342938940563</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-1.650753682576239</v>
+        <v>-1.937254616304118</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.004155279331373</v>
+        <v>5.065925728498729</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-1.109965270284705</v>
+        <v>-1.16489516925755</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.9399783468126428</v>
+        <v>-0.970932714414806</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.897253738855071</v>
+        <v>2.993079458731463</v>
       </c>
     </row>
     <row r="25">
@@ -1347,7 +1347,7 @@
         <v>-0.2825516331176047</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.0664810959941419</v>
+        <v>-0.06648109599414208</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.3764976927663948</v>
@@ -1365,7 +1365,7 @@
         <v>-0.4114601056074675</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.1246932567494294</v>
+        <v>0.1246932567494296</v>
       </c>
     </row>
     <row r="26">
@@ -1376,31 +1376,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.846829776603008</v>
+        <v>-0.8461435671571907</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6450911850283285</v>
+        <v>-0.6591140851601891</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5259083918313174</v>
+        <v>-0.5093123266930774</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.5950532658600423</v>
+        <v>-0.578490368633143</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.6508491041545459</v>
+        <v>-0.6555394835556867</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1237799414940634</v>
+        <v>-0.1203321381635738</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.6182542532766361</v>
+        <v>-0.6104518553879223</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.5869261300123657</v>
+        <v>-0.5893147442309485</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1306028793092761</v>
+        <v>-0.128176026972192</v>
       </c>
     </row>
     <row r="27">
@@ -1411,31 +1411,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.004514139894164653</v>
+        <v>-0.01767379339733434</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.4767369962907967</v>
+        <v>0.3930716274377113</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.7865762007463613</v>
+        <v>0.7840597968180418</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.08413113564179416</v>
+        <v>-0.03550584081590721</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.180769707304248</v>
+        <v>-0.2019298821292641</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5588617520240673</v>
+        <v>0.6207419783427055</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.1898448314959243</v>
+        <v>-0.1851205731344855</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.1492334732250802</v>
+        <v>-0.141992382121317</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.5128090470429678</v>
+        <v>0.4810946731782302</v>
       </c>
     </row>
     <row r="28">
@@ -1456,7 +1456,7 @@
         <v>-3.610461618721518</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1.138953423335477</v>
+        <v>1.138953423335475</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-2.032294333960905</v>
@@ -1465,7 +1465,7 @@
         <v>-5.641912348781513</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-1.635193898335124</v>
+        <v>-1.635193898335119</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-3.254863502491992</v>
@@ -1485,31 +1485,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-7.145786274269655</v>
+        <v>-7.472158997341416</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-6.467754381854777</v>
+        <v>-6.470476793024149</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.208103280798125</v>
+        <v>-2.00312921497807</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-7.172624235923257</v>
+        <v>-6.320114954683702</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-10.33663589716379</v>
+        <v>-10.636011924579</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-5.79328404773536</v>
+        <v>-6.253588483430515</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-6.117766032185408</v>
+        <v>-6.125869365528921</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-7.543576958102868</v>
+        <v>-7.370562757991365</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-3.352479686690488</v>
+        <v>-3.287251192918408</v>
       </c>
     </row>
     <row r="30">
@@ -1520,31 +1520,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-2.179201226843342</v>
+        <v>-2.269052747760635</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-1.079316500121652</v>
+        <v>-1.072913362927058</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.888189508024385</v>
+        <v>3.858247095743023</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.453773418661241</v>
+        <v>2.945908222121702</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-1.347396931848839</v>
+        <v>-1.312523289110126</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.135229668781903</v>
+        <v>2.231107616651065</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-0.6861041750676258</v>
+        <v>-0.5555892982946082</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-2.043517598971812</v>
+        <v>-2.15173358287924</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.144708489482235</v>
+        <v>2.132038447536894</v>
       </c>
     </row>
     <row r="31">
@@ -1561,7 +1561,7 @@
         <v>-0.6281466937292605</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.1981546690511945</v>
+        <v>0.1981546690511943</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.1336154786290728</v>
@@ -1570,7 +1570,7 @@
         <v>-0.3709338781634471</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.1075076634945685</v>
+        <v>-0.1075076634945681</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.3075767378658856</v>
@@ -1590,31 +1590,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.9312949482531417</v>
+        <v>-0.9279952362666651</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.8527759150734329</v>
+        <v>-0.8551270704402308</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2853068299553631</v>
+        <v>-0.2625814321166836</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.3989338277910524</v>
+        <v>-0.3820483411704674</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.5815637052547957</v>
+        <v>-0.5843848272810811</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.3262857048735452</v>
+        <v>-0.3427386248069381</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.4957356313394915</v>
+        <v>-0.4949465631503342</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.5995949527581264</v>
+        <v>-0.6129312942230387</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.261232759699694</v>
+        <v>-0.2640410673475085</v>
       </c>
     </row>
     <row r="33">
@@ -1625,31 +1625,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.4822626048086502</v>
+        <v>-0.4234942187773539</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.2062228400972361</v>
+        <v>-0.2009707802154539</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.9529202096922351</v>
+        <v>0.9419810730105797</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1914289579893138</v>
+        <v>0.2315252468051031</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.1079250239379327</v>
+        <v>-0.1041217956567445</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1743052663681607</v>
+        <v>0.1820492883661036</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.05997821293992506</v>
+        <v>-0.0404938379118596</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.2114803775249898</v>
+        <v>-0.2352248015025237</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.2476834585609747</v>
+        <v>0.2346844489609437</v>
       </c>
     </row>
     <row r="34">
@@ -1670,7 +1670,7 @@
         <v>-3.466722423158773</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-0.5392092002215875</v>
+        <v>-0.5392092002215881</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>-6.538179184621459</v>
@@ -1679,7 +1679,7 @@
         <v>-7.927645725149429</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-6.577879953769495</v>
+        <v>-6.577879953769497</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-5.256741635553667</v>
@@ -1688,7 +1688,7 @@
         <v>-5.976898493109746</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-3.993322712687394</v>
+        <v>-3.993322712687392</v>
       </c>
     </row>
     <row r="35">
@@ -1699,31 +1699,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-7.61422124506691</v>
+        <v>-7.074775035203748</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-7.348252405115542</v>
+        <v>-6.892648111809742</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-4.050841969221175</v>
+        <v>-4.158349609914757</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-12.93051899599649</v>
+        <v>-12.09919432407751</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-13.13711017251869</v>
+        <v>-13.54573899579162</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-11.31670159792007</v>
+        <v>-11.62378797071196</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-9.154552663995334</v>
+        <v>-8.952985743528405</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-9.469413477341014</v>
+        <v>-9.575330689262756</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-7.023373859662375</v>
+        <v>-7.148560028923503</v>
       </c>
     </row>
     <row r="36">
@@ -1734,31 +1734,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>-0.4356288241272606</v>
+        <v>-0.4525091098387098</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-0.2176754285950163</v>
+        <v>0.1323150935243932</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2.850301002924166</v>
+        <v>2.512330957078827</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>-1.279984284849096</v>
+        <v>-0.9165010500424244</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-2.198081774862476</v>
+        <v>-2.77716379697787</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-1.83186041540681</v>
+        <v>-1.795864512493502</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>-1.990017997038884</v>
+        <v>-2.027548528932444</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-2.792390711384192</v>
+        <v>-2.467763830141508</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-0.8274830453401762</v>
+        <v>-1.004892634571907</v>
       </c>
     </row>
     <row r="37">
@@ -1775,7 +1775,7 @@
         <v>-0.5291997326794894</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.08231099285866204</v>
+        <v>-0.08231099285866215</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>-0.2930894042552025</v>
@@ -1784,7 +1784,7 @@
         <v>-0.3553755406697183</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.2948690854859403</v>
+        <v>-0.2948690854859404</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.3492031283097759</v>
@@ -1793,7 +1793,7 @@
         <v>-0.3970428444243064</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.2652747424734418</v>
+        <v>-0.2652747424734416</v>
       </c>
     </row>
     <row r="38">
@@ -1804,31 +1804,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.825068054831976</v>
+        <v>-0.8168134725515649</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.8205315039920404</v>
+        <v>-0.7973640804091147</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.4681703490723146</v>
+        <v>-0.4615675044219321</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.4890056875656746</v>
+        <v>-0.483753024215927</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.5345165534712808</v>
+        <v>-0.5407099024344015</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.4445264915049967</v>
+        <v>-0.4522452577957799</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.5345082182779257</v>
+        <v>-0.5268385053468655</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.5588952740815403</v>
+        <v>-0.5665490744033188</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.4193559870748044</v>
+        <v>-0.4124724600337172</v>
       </c>
     </row>
     <row r="39">
@@ -1839,31 +1839,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>-0.006205457530258203</v>
+        <v>-0.04994615636865053</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.06327346446978725</v>
+        <v>0.04129660248480968</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.6341428638625416</v>
+        <v>0.5665037723000347</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>-0.05299559586622846</v>
+        <v>-0.03878130197583889</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.107341692302574</v>
+        <v>-0.1372072108017522</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.09524206285756749</v>
+        <v>-0.08719766512337539</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>-0.1453541104573967</v>
+        <v>-0.1474420815366555</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.2037990942332812</v>
+        <v>-0.182565059749056</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.06435548913614557</v>
+        <v>-0.07402133180941088</v>
       </c>
     </row>
     <row r="40">
@@ -1884,7 +1884,7 @@
         <v>-4.64362850118066</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-0.02732257939382643</v>
+        <v>-0.02732257939382504</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>-0.1008328752614807</v>
@@ -1893,7 +1893,7 @@
         <v>-9.334622616100209</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>-1.41384162032574</v>
+        <v>-1.413841620325742</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>-2.427836587966476</v>
@@ -1902,7 +1902,7 @@
         <v>-7.582969183187684</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-1.092242107721214</v>
+        <v>-1.092242107721211</v>
       </c>
     </row>
     <row r="41">
@@ -1913,31 +1913,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-10.94740581910501</v>
+        <v>-10.57031146871407</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-9.465937641669726</v>
+        <v>-9.510240784651005</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-5.355908556053874</v>
+        <v>-4.872132155865952</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-6.59014223197342</v>
+        <v>-6.784584261115234</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-15.7909988139551</v>
+        <v>-15.52635711123311</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-7.375845691868746</v>
+        <v>-7.850748628550165</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-6.741545027282357</v>
+        <v>-6.918943975622684</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-12.0383600113521</v>
+        <v>-11.93724993675885</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-5.419756168129358</v>
+        <v>-5.065179158104901</v>
       </c>
     </row>
     <row r="42">
@@ -1948,31 +1948,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-1.566591364367938</v>
+        <v>-1.751671809672628</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-0.3733641178005958</v>
+        <v>-0.3504815390196906</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>4.536572352269897</v>
+        <v>4.31708121209884</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>6.628837468245484</v>
+        <v>6.460018126068368</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-2.576624933183713</v>
+        <v>-2.778394018028772</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>4.22885025941003</v>
+        <v>4.24420571016284</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>2.047538305833814</v>
+        <v>2.107249275214747</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-3.249815416079504</v>
+        <v>-3.130724970393077</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>3.015196120410647</v>
+        <v>2.702640391574408</v>
       </c>
     </row>
     <row r="43">
@@ -1989,7 +1989,7 @@
         <v>-0.520881772126075</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.003064808817090599</v>
+        <v>-0.003064808817090443</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>-0.004011118429226645</v>
@@ -1998,7 +1998,7 @@
         <v>-0.3713300519123326</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.05624243248632876</v>
+        <v>-0.05624243248632887</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.1286154152899349</v>
@@ -2007,7 +2007,7 @@
         <v>-0.4017102038335083</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.05786187298519183</v>
+        <v>-0.05786187298519169</v>
       </c>
     </row>
     <row r="44">
@@ -2018,31 +2018,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.8740472198710639</v>
+        <v>-0.864608244009093</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.7917986258571847</v>
+        <v>-0.7759523702840841</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.4352905244842223</v>
+        <v>-0.4060617670897109</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.2291339115302574</v>
+        <v>-0.2360902037940084</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.5493037653308758</v>
+        <v>-0.5572590632815608</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.2491291673174664</v>
+        <v>-0.2536008521847997</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.3146766261097383</v>
+        <v>-0.3194465854807542</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.555695660080671</v>
+        <v>-0.5560161747736048</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.2458629767164076</v>
+        <v>-0.2325646987109672</v>
       </c>
     </row>
     <row r="45">
@@ -2053,31 +2053,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.1920495686786504</v>
+        <v>-0.216202676245644</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.03919935807872268</v>
+        <v>-0.009175960475379136</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.7934395579906706</v>
+        <v>0.7510827086118786</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.311726810837561</v>
+        <v>0.3053294827618577</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.1093538855698045</v>
+        <v>-0.1245162932753016</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.2113547768572792</v>
+        <v>0.2049642307751502</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1249197557902389</v>
+        <v>0.1392229049423822</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.1920599757828382</v>
+        <v>-0.1623679943818905</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.1915174990471719</v>
+        <v>0.1710272180888624</v>
       </c>
     </row>
     <row r="46">
@@ -2127,31 +2127,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-2.527587816629157</v>
+        <v>-2.52468801620502</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-2.155778052539545</v>
+        <v>-2.22595931141755</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>0.01239659443149592</v>
+        <v>-0.07118749917454734</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-3.738876160615322</v>
+        <v>-3.734544431760404</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-6.04281308930017</v>
+        <v>-6.060714210234269</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-1.231163623778224</v>
+        <v>-1.252817132381949</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-2.925550840353409</v>
+        <v>-2.953979540245894</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-3.892636491694053</v>
+        <v>-4.003264812290679</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-0.3676131381064228</v>
+        <v>-0.3005726771643616</v>
       </c>
     </row>
     <row r="48">
@@ -2162,31 +2162,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-1.191126460557423</v>
+        <v>-1.130617632426209</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-0.7598649359605529</v>
+        <v>-0.753206843503302</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1.649712180361088</v>
+        <v>1.669505395327809</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>-1.00734709570485</v>
+        <v>-1.070189236729942</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-3.315630836522176</v>
+        <v>-3.309471427706245</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>1.441695396372577</v>
+        <v>1.378446010650635</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-1.291457881565261</v>
+        <v>-1.252721663397872</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-2.310518317493971</v>
+        <v>-2.254902646776945</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>1.281749489979912</v>
+        <v>1.326906707128319</v>
       </c>
     </row>
     <row r="49">
@@ -2232,31 +2232,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.7317556553784337</v>
+        <v>-0.7243888849881371</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.6263717073976092</v>
+        <v>-0.6380870230138591</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.000836569740956984</v>
+        <v>-0.02080356051506261</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.3267502742041751</v>
+        <v>-0.3253467052212794</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.5226471819835325</v>
+        <v>-0.5252277872799246</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.104718519466622</v>
+        <v>-0.1084814372530886</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.3958494449615157</v>
+        <v>-0.3935948418493848</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.5294286516116391</v>
+        <v>-0.5317950215423793</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.04881214931494856</v>
+        <v>-0.03945149973380217</v>
       </c>
     </row>
     <row r="51">
@@ -2267,31 +2267,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.428600650187507</v>
+        <v>-0.4131252218536505</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.2971868758330199</v>
+        <v>-0.2867794185363963</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.6163763154692662</v>
+        <v>0.6355562766902974</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>-0.09786539863028054</v>
+        <v>-0.105315644807364</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.3267357284863705</v>
+        <v>-0.3302269134349683</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.1440806623125987</v>
+        <v>0.1381166794122604</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.1985886349533669</v>
+        <v>-0.1905582528429933</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.3523218932473206</v>
+        <v>-0.3438764821722898</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.1994637047231822</v>
+        <v>0.2072200532480188</v>
       </c>
     </row>
     <row r="52">
